--- a/biology/Botanique/Sporobolus/Sporobolus.xlsx
+++ b/biology/Botanique/Sporobolus/Sporobolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporobolus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, à répartition quasi-cosmopolite, qui comprend 184 espèces acceptées. Ce sont des plantes herbacées, généralement vivaces, poussant en touffes, aux tiges généralement dressées et pouvant atteindre de 5 à 160 cm de haut, voire plus. Ce genre se caractérise, entre autres, par ses fruits dont le péricarpe mucilagineux se sépare facilement de la graine à maturité, facilitant la dispersion de cette dernière.
 De nombreuses espèces de ce genre sont des mauvaises herbes des cultures ayant une importance significative. Certaines jouent un rôle comme plantes de pâturage.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Sporobolos dérive de deux racines grecques : σπόρος (sporos), graine, spore, et βάλλειν (bollein), jeter, en référence à la manière dont la graine est libérée et dispersée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Sporobolos dérive de deux racines grecques : σπόρος (sporos), graine, spore, et βάλλειν (bollein), jeter, en référence à la manière dont la graine est libérée et dispersée.
 </t>
         </is>
       </c>
@@ -543,13 +557,13 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes du genre Sporobolus sont des plantes herbacées vivaces, rarement annuelles, poussant en touffes, parfois rhizomateuses ou stolonifères. Les feuilles ont un limbe plat ou enroulés, linéaire à étroitement lancéolé. La ligule est réduite à une rangée de poils[3].
-L'inflorescence est une panicule ouverte ou contractée, rarement spiciforme.Les épillets sont uniflores, subtérètes, non comprimés ni carénés, glabres. Le rachillet se désarticule à maturité au-dessus des glumes.Les glumes sont inégales, généralement plus courtes que la lemme, membraneuses, caduques ou persistantes, et présentent parfois une nervure et ont un apex obtus, aigu ou acuminé. La lemme, elliptique à étroitement ovale, est finement membraneuse, glabre, et présente de 1 à 3 nervures. La paléole, égale à la lemme ou plus courte, est déprimée entre les nervures et se fendant longitudinalement pendant la croissance du grain. Les étamines sont au nombre de 2 à 3[3].
-Le fruit, petit (0,3–2 mm de long), globuleux à ellipsoïde, arrondi ou tronqué, comprimé latéralement ou dorsoventralement, ou pas sensiblement comprimé, n'adhère pas à la lemme et à la paléole. Il présente, contrairement au caryopse typique, un péricarpe non adhérent. Ce péricarpe se gonfle généralement avec l'humidité et devient mucilagineux, expulsant de force la graine collante, qui adhère souvent au sommet de l'épillet. Le hile est court. L'endosperme est dur, sans lipide, ne contenant que des grains d'amidon simple ou composé. L'embryon, de grande taille, présente un épiblaste, avec une queue scutellaire et un entrenoeud du mésocotyle allongé[3],[4].
-Cytologie
-Le nombre chromosomique de base est x = 9 ou 10, avec un nombre chromosomique somatique variable, 2n = 18, 24, 36, 38, 54, 72, 80, 88, 90, 108 et 126, avec des espèces diploïdes et une série d'espèces polyploide[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes du genre Sporobolus sont des plantes herbacées vivaces, rarement annuelles, poussant en touffes, parfois rhizomateuses ou stolonifères. Les feuilles ont un limbe plat ou enroulés, linéaire à étroitement lancéolé. La ligule est réduite à une rangée de poils.
+L'inflorescence est une panicule ouverte ou contractée, rarement spiciforme.Les épillets sont uniflores, subtérètes, non comprimés ni carénés, glabres. Le rachillet se désarticule à maturité au-dessus des glumes.Les glumes sont inégales, généralement plus courtes que la lemme, membraneuses, caduques ou persistantes, et présentent parfois une nervure et ont un apex obtus, aigu ou acuminé. La lemme, elliptique à étroitement ovale, est finement membraneuse, glabre, et présente de 1 à 3 nervures. La paléole, égale à la lemme ou plus courte, est déprimée entre les nervures et se fendant longitudinalement pendant la croissance du grain. Les étamines sont au nombre de 2 à 3.
+Le fruit, petit (0,3–2 mm de long), globuleux à ellipsoïde, arrondi ou tronqué, comprimé latéralement ou dorsoventralement, ou pas sensiblement comprimé, n'adhère pas à la lemme et à la paléole. Il présente, contrairement au caryopse typique, un péricarpe non adhérent. Ce péricarpe se gonfle généralement avec l'humidité et devient mucilagineux, expulsant de force la graine collante, qui adhère souvent au sommet de l'épillet. Le hile est court. L'endosperme est dur, sans lipide, ne contenant que des grains d'amidon simple ou composé. L'embryon, de grande taille, présente un épiblaste, avec une queue scutellaire et un entrenoeud du mésocotyle allongé,.
 </t>
         </is>
       </c>
@@ -575,14 +589,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cytologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre chromosomique de base est x = 9 ou 10, avec un nombre chromosomique somatique variable, 2n = 18, 24, 36, 38, 54, 72, 80, 88, 90, 108 et 126, avec des espèces diploïdes et une série d'espèces polyploide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sporobolus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sporobolus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La genre Sporobolus a été décrit par le botaniste écossais Robert Brown et publié en 1810 dans Prodromus Florae Novae Hollandiae 169[5]. L'espèce type est Sporobolus indicus (L.) R. Br[4].
-Synonymes
-Selon GRIN            (15 juin 2019)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La genre Sporobolus a été décrit par le botaniste écossais Robert Brown et publié en 1810 dans Prodromus Florae Novae Hollandiae 169. L'espèce type est Sporobolus indicus (L.) R. Br.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sporobolus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sporobolus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (15 juin 2019) :
 Agrosticula Raddi
 Bauchea E. Fourn.
 Bennetia Raf.
@@ -595,8 +683,43 @@
 Spermatochiton Pilg., orth. var.
 Thellungia Stapf
 Triachyrum Hochst.
-Liste des espèces
-Selon The Plant List            (15 juin 2019)[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sporobolus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sporobolus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (15 juin 2019) :
 Sporobolus acinifolius Stapf
 Sporobolus actinocladus (F.Muell.) F.Muell.
 Sporobolus acuminatus (Trin.) Hack.
@@ -781,7 +904,7 @@
 Sporobolus wallichii Munro ex Thwaites
 Sporobolus welwitschii Rendle
 Sporobolus wrightii Scribn.
-Selon Plants of the World online (POWO)                (30 novembre 2020)[8] (222 espèces) :
+Selon Plants of the World online (POWO)                (30 novembre 2020) (222 espèces) :
 Sporobolus acinifolius Stapf
 Sporobolus actinocladus (F.Muell.) F.Muell.
 Sporobolus aculeatus (L.) P.M.Peterson
